--- a/DONE/PARAISO, MARIA LORENA.xlsx
+++ b/DONE/PARAISO, MARIA LORENA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\DONE 2-2-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A07D2E-17A5-4E9A-BD5C-2A0B9144BE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC485F7F-F213-4589-A064-2AEEDD18172E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -284,6 +284,15 @@
   </si>
   <si>
     <t>TOTAL LEAVE</t>
+  </si>
+  <si>
+    <t>4/19,20/2023</t>
+  </si>
+  <si>
+    <t>SUSPENSION</t>
+  </si>
+  <si>
+    <t>12/13-15/2019</t>
   </si>
 </sst>
 </file>
@@ -2925,7 +2934,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K135" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K136" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
@@ -3333,12 +3342,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K135"/>
+  <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane ySplit="3900" topLeftCell="A70" activePane="bottomLeft"/>
+      <pane ySplit="3900" topLeftCell="A25" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3497,7 +3506,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>51.75</v>
+        <v>51.625</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3507,7 +3516,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>78.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4088,7 +4097,7 @@
         <v>80</v>
       </c>
       <c r="C36" s="13">
-        <v>1.25</v>
+        <v>1.1250000000000002</v>
       </c>
       <c r="D36" s="39">
         <v>2</v>
@@ -4097,7 +4106,7 @@
       <c r="F36" s="20"/>
       <c r="G36" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.1250000000000002</v>
       </c>
       <c r="H36" s="39"/>
       <c r="I36" s="9"/>
@@ -4105,14 +4114,16 @@
       <c r="K36" s="20"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="20"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="C37" s="13"/>
       <c r="D37" s="39"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="20"/>
+      <c r="F37" s="20">
+        <v>3</v>
+      </c>
       <c r="G37" s="13" t="str">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
@@ -4120,38 +4131,34 @@
       <c r="H37" s="39"/>
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
-      <c r="K37" s="20"/>
+      <c r="K37" s="20" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="40">
-        <v>43831</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A38" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="13"/>
       <c r="D38" s="39"/>
       <c r="E38" s="9"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G38" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H38" s="39"/>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="49">
-        <v>43855</v>
-      </c>
+      <c r="K38" s="20"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="13">
         <v>1.25</v>
@@ -4166,23 +4173,21 @@
       <c r="H39" s="39"/>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="20" t="s">
-        <v>68</v>
+      <c r="K39" s="49">
+        <v>43855</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
-        <v>43891</v>
+        <v>43862</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C40" s="13">
         <v>1.25</v>
       </c>
-      <c r="D40" s="39">
-        <v>4</v>
-      </c>
+      <c r="D40" s="39"/>
       <c r="E40" s="9"/>
       <c r="F40" s="20"/>
       <c r="G40" s="13">
@@ -4193,18 +4198,22 @@
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
       <c r="K40" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
-        <v>43922</v>
-      </c>
-      <c r="B41" s="20"/>
+        <v>43891</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C41" s="13">
         <v>1.25</v>
       </c>
-      <c r="D41" s="39"/>
+      <c r="D41" s="39">
+        <v>4</v>
+      </c>
       <c r="E41" s="9"/>
       <c r="F41" s="20"/>
       <c r="G41" s="13">
@@ -4214,11 +4223,13 @@
       <c r="H41" s="39"/>
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="20"/>
+      <c r="K41" s="20" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13">
@@ -4238,7 +4249,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13">
@@ -4258,7 +4269,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13">
@@ -4278,7 +4289,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13">
@@ -4298,7 +4309,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13">
@@ -4318,7 +4329,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13">
@@ -4338,7 +4349,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13">
@@ -4358,17 +4369,13 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
-        <v>44166</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>52</v>
-      </c>
+        <v>44136</v>
+      </c>
+      <c r="B49" s="20"/>
       <c r="C49" s="13">
         <v>1.25</v>
       </c>
-      <c r="D49" s="39">
-        <v>1</v>
-      </c>
+      <c r="D49" s="39"/>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
       <c r="G49" s="13">
@@ -4381,17 +4388,23 @@
       <c r="K49" s="20"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="39"/>
+      <c r="A50" s="40">
+        <v>44166</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D50" s="39">
+        <v>1</v>
+      </c>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G50" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H50" s="39"/>
       <c r="I50" s="9"/>
@@ -4399,19 +4412,17 @@
       <c r="K50" s="20"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="40">
-        <v>44197</v>
+      <c r="A51" s="48" t="s">
+        <v>45</v>
       </c>
       <c r="B51" s="20"/>
-      <c r="C51" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C51" s="13"/>
       <c r="D51" s="39"/>
       <c r="E51" s="9"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G51" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H51" s="39"/>
       <c r="I51" s="9"/>
@@ -4420,7 +4431,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13">
@@ -4440,7 +4451,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13">
@@ -4460,7 +4471,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13">
@@ -4480,7 +4491,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13">
@@ -4500,7 +4511,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13">
@@ -4520,7 +4531,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13">
@@ -4540,7 +4551,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13">
@@ -4560,7 +4571,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13">
@@ -4580,7 +4591,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13">
@@ -4600,7 +4611,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13">
@@ -4620,17 +4631,13 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
-        <v>44531</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>49</v>
-      </c>
+        <v>44501</v>
+      </c>
+      <c r="B62" s="20"/>
       <c r="C62" s="13">
         <v>1.25</v>
       </c>
-      <c r="D62" s="39">
-        <v>5</v>
-      </c>
+      <c r="D62" s="39"/>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
       <c r="G62" s="13">
@@ -4640,42 +4647,46 @@
       <c r="H62" s="39"/>
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
-      <c r="K62" s="20" t="s">
-        <v>76</v>
-      </c>
+      <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B63" s="20"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="39"/>
+      <c r="A63" s="40">
+        <v>44531</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D63" s="39">
+        <v>5</v>
+      </c>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G63" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H63" s="39"/>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="20"/>
+      <c r="K63" s="20" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="40">
-        <v>44562</v>
+      <c r="A64" s="48" t="s">
+        <v>46</v>
       </c>
       <c r="B64" s="20"/>
-      <c r="C64" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C64" s="13"/>
       <c r="D64" s="39"/>
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G64" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H64" s="39"/>
       <c r="I64" s="9"/>
@@ -4684,7 +4695,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13">
@@ -4704,7 +4715,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13">
@@ -4724,7 +4735,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13">
@@ -4744,7 +4755,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13">
@@ -4764,7 +4775,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13">
@@ -4784,7 +4795,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13">
@@ -4804,7 +4815,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13">
@@ -4824,7 +4835,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13">
@@ -4844,7 +4855,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13">
@@ -4864,7 +4875,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13">
@@ -4884,17 +4895,13 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
-        <v>44896</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>49</v>
-      </c>
+        <v>44866</v>
+      </c>
+      <c r="B75" s="20"/>
       <c r="C75" s="13">
         <v>1.25</v>
       </c>
-      <c r="D75" s="39">
-        <v>5</v>
-      </c>
+      <c r="D75" s="39"/>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
       <c r="G75" s="13">
@@ -4904,42 +4911,46 @@
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="20" t="s">
-        <v>77</v>
-      </c>
+      <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="39"/>
+      <c r="A76" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C76" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D76" s="39">
+        <v>5</v>
+      </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G76" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="20"/>
+      <c r="K76" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="40">
-        <v>44927</v>
+      <c r="A77" s="48" t="s">
+        <v>47</v>
       </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C77" s="13"/>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G77" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
@@ -4948,7 +4959,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13">
@@ -4968,17 +4979,13 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B79" s="20" t="s">
-        <v>58</v>
-      </c>
+        <v>44958</v>
+      </c>
+      <c r="B79" s="20"/>
       <c r="C79" s="13">
         <v>1.25</v>
       </c>
-      <c r="D79" s="39">
-        <v>2</v>
-      </c>
+      <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
       <c r="G79" s="13">
@@ -4988,25 +4995,33 @@
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="40"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="39"/>
+      <c r="A80" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D80" s="39">
+        <v>2</v>
+      </c>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20"/>
+      <c r="K80" s="20" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
@@ -5873,20 +5888,36 @@
       <c r="K134" s="20"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A135" s="41"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="42"/>
-      <c r="D135" s="43"/>
+      <c r="A135" s="40"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H135" s="43"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="39"/>
       <c r="I135" s="9"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="15"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="41"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="43"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5938,7 +5969,7 @@
     <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <pane ySplit="3516" topLeftCell="A31" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6108,7 +6139,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>48.625</v>
+        <v>46.625</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6742,10 +6773,16 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="40"/>
-      <c r="B37" s="20"/>
+      <c r="A37" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C37" s="13"/>
-      <c r="D37" s="39"/>
+      <c r="D37" s="39">
+        <v>2</v>
+      </c>
       <c r="E37" s="9"/>
       <c r="F37" s="20"/>
       <c r="G37" s="13" t="str">
@@ -6755,7 +6792,9 @@
       <c r="H37" s="39"/>
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
-      <c r="K37" s="20"/>
+      <c r="K37" s="20" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
@@ -8291,7 +8330,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8411,7 +8450,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>130.5</v>
+        <v>130.25</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
